--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Sema7a-Itga1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Sema7a-Itga1.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>43.98780833333333</v>
+        <v>52.47114533333334</v>
       </c>
       <c r="H2">
-        <v>131.963425</v>
+        <v>157.413436</v>
       </c>
       <c r="I2">
-        <v>0.6316313406953905</v>
+        <v>0.6809868250592768</v>
       </c>
       <c r="J2">
-        <v>0.6316313406953904</v>
+        <v>0.6809868250592767</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>51.78202533333334</v>
+        <v>43.19793166666667</v>
       </c>
       <c r="N2">
-        <v>155.346076</v>
+        <v>129.593795</v>
       </c>
       <c r="O2">
-        <v>0.7202935140152373</v>
+        <v>0.7412538312889448</v>
       </c>
       <c r="P2">
-        <v>0.7202935140152372</v>
+        <v>0.7412538312889448</v>
       </c>
       <c r="Q2">
-        <v>2277.777805474478</v>
+        <v>2266.644950581069</v>
       </c>
       <c r="R2">
-        <v>20500.0002492703</v>
+        <v>20399.80455522962</v>
       </c>
       <c r="S2">
-        <v>0.4549599579516384</v>
+        <v>0.5047840931324833</v>
       </c>
       <c r="T2">
-        <v>0.4549599579516382</v>
+        <v>0.5047840931324833</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>43.98780833333333</v>
+        <v>52.47114533333334</v>
       </c>
       <c r="H3">
-        <v>131.963425</v>
+        <v>157.413436</v>
       </c>
       <c r="I3">
-        <v>0.6316313406953905</v>
+        <v>0.6809868250592768</v>
       </c>
       <c r="J3">
-        <v>0.6316313406953904</v>
+        <v>0.6809868250592767</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>31.14098</v>
       </c>
       <c r="O3">
-        <v>0.1443914548190984</v>
+        <v>0.1781209566020688</v>
       </c>
       <c r="P3">
-        <v>0.1443914548190984</v>
+        <v>0.1781209566020688</v>
       </c>
       <c r="Q3">
-        <v>456.6078198507223</v>
+        <v>544.6676291341423</v>
       </c>
       <c r="R3">
-        <v>4109.470378656501</v>
+        <v>4902.00866220728</v>
       </c>
       <c r="S3">
-        <v>0.09120216819234502</v>
+        <v>0.1212980247129641</v>
       </c>
       <c r="T3">
-        <v>0.091202168192345</v>
+        <v>0.1212980247129641</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,46 +664,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>43.98780833333333</v>
+        <v>52.47114533333334</v>
       </c>
       <c r="H4">
-        <v>131.963425</v>
+        <v>157.413436</v>
       </c>
       <c r="I4">
-        <v>0.6316313406953905</v>
+        <v>0.6809868250592768</v>
       </c>
       <c r="J4">
-        <v>0.6316313406953904</v>
+        <v>0.6809868250592767</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.523303</v>
+        <v>0.422089</v>
       </c>
       <c r="N4">
-        <v>1.569909</v>
+        <v>1.266267</v>
       </c>
       <c r="O4">
-        <v>0.007279200733040383</v>
+        <v>0.007242825670663926</v>
       </c>
       <c r="P4">
-        <v>0.007279200733040382</v>
+        <v>0.007242825670663927</v>
       </c>
       <c r="Q4">
-        <v>23.01895206425833</v>
+        <v>22.14749326260134</v>
       </c>
       <c r="R4">
-        <v>207.170568578325</v>
+        <v>199.327439363412</v>
       </c>
       <c r="S4">
-        <v>0.004597771318201166</v>
+        <v>0.004932268857923254</v>
       </c>
       <c r="T4">
-        <v>0.004597771318201166</v>
+        <v>0.004932268857923253</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>43.98780833333333</v>
+        <v>52.47114533333334</v>
       </c>
       <c r="H5">
-        <v>131.963425</v>
+        <v>157.413436</v>
       </c>
       <c r="I5">
-        <v>0.6316313406953905</v>
+        <v>0.6809868250592768</v>
       </c>
       <c r="J5">
-        <v>0.6316313406953904</v>
+        <v>0.6809868250592767</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.692542</v>
+        <v>4.133026333333333</v>
       </c>
       <c r="N5">
-        <v>17.077626</v>
+        <v>12.399079</v>
       </c>
       <c r="O5">
-        <v>0.07918386842663459</v>
+        <v>0.07092056230936286</v>
       </c>
       <c r="P5">
-        <v>0.07918386842663459</v>
+        <v>0.07092056230936288</v>
       </c>
       <c r="Q5">
-        <v>250.40244642545</v>
+        <v>216.8646254028271</v>
       </c>
       <c r="R5">
-        <v>2253.62201782905</v>
+        <v>1951.781628625444</v>
       </c>
       <c r="S5">
-        <v>0.05001501297576261</v>
+        <v>0.04829596855847162</v>
       </c>
       <c r="T5">
-        <v>0.0500150129757626</v>
+        <v>0.04829596855847162</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>43.98780833333333</v>
+        <v>52.47114533333334</v>
       </c>
       <c r="H6">
-        <v>131.963425</v>
+        <v>157.413436</v>
       </c>
       <c r="I6">
-        <v>0.6316313406953905</v>
+        <v>0.6809868250592768</v>
       </c>
       <c r="J6">
-        <v>0.6316313406953904</v>
+        <v>0.6809868250592767</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.511976</v>
+        <v>0.1434673333333333</v>
       </c>
       <c r="N6">
-        <v>10.535928</v>
+        <v>0.430402</v>
       </c>
       <c r="O6">
-        <v>0.04885196200598933</v>
+        <v>0.002461824128959449</v>
       </c>
       <c r="P6">
-        <v>0.04885196200598932</v>
+        <v>0.002461824128959449</v>
       </c>
       <c r="Q6">
-        <v>154.4841271592667</v>
+        <v>7.527895297919112</v>
       </c>
       <c r="R6">
-        <v>1390.3571444334</v>
+        <v>67.75105768127202</v>
       </c>
       <c r="S6">
-        <v>0.03085643025744332</v>
+        <v>0.001676469797434415</v>
       </c>
       <c r="T6">
-        <v>0.03085643025744331</v>
+        <v>0.001676469797434415</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>63.84983200000001</v>
       </c>
       <c r="I7">
-        <v>0.3056116116214432</v>
+        <v>0.2762209851911765</v>
       </c>
       <c r="J7">
-        <v>0.3056116116214432</v>
+        <v>0.2762209851911764</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>51.78202533333334</v>
+        <v>43.19793166666667</v>
       </c>
       <c r="N7">
-        <v>155.346076</v>
+        <v>129.593795</v>
       </c>
       <c r="O7">
-        <v>0.7202935140152373</v>
+        <v>0.7412538312889448</v>
       </c>
       <c r="P7">
-        <v>0.7202935140152372</v>
+        <v>0.7412538312889448</v>
       </c>
       <c r="Q7">
-        <v>1102.091206051026</v>
+        <v>919.393559888049</v>
       </c>
       <c r="R7">
-        <v>9918.820854459234</v>
+        <v>8274.54203899244</v>
       </c>
       <c r="S7">
-        <v>0.2201300616586693</v>
+        <v>0.2047498635553665</v>
       </c>
       <c r="T7">
-        <v>0.2201300616586692</v>
+        <v>0.2047498635553664</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>63.84983200000001</v>
       </c>
       <c r="I8">
-        <v>0.3056116116214432</v>
+        <v>0.2762209851911765</v>
       </c>
       <c r="J8">
-        <v>0.3056116116214432</v>
+        <v>0.2762209851911764</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>31.14098</v>
       </c>
       <c r="O8">
-        <v>0.1443914548190984</v>
+        <v>0.1781209566020688</v>
       </c>
       <c r="P8">
-        <v>0.1443914548190984</v>
+        <v>0.1781209566020688</v>
       </c>
       <c r="Q8">
         <v>220.9273712572623</v>
@@ -948,10 +948,10 @@
         <v>1988.34634131536</v>
       </c>
       <c r="S8">
-        <v>0.04412770521162946</v>
+        <v>0.04920074611581825</v>
       </c>
       <c r="T8">
-        <v>0.04412770521162945</v>
+        <v>0.04920074611581823</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,40 +980,40 @@
         <v>63.84983200000001</v>
       </c>
       <c r="I9">
-        <v>0.3056116116214432</v>
+        <v>0.2762209851911765</v>
       </c>
       <c r="J9">
-        <v>0.3056116116214432</v>
+        <v>0.2762209851911764</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.523303</v>
+        <v>0.422089</v>
       </c>
       <c r="N9">
-        <v>1.569909</v>
+        <v>1.266267</v>
       </c>
       <c r="O9">
-        <v>0.007279200733040383</v>
+        <v>0.007242825670663926</v>
       </c>
       <c r="P9">
-        <v>0.007279200733040382</v>
+        <v>0.007242825670663927</v>
       </c>
       <c r="Q9">
-        <v>11.13760287836533</v>
+        <v>8.983437246349334</v>
       </c>
       <c r="R9">
-        <v>100.238425905288</v>
+        <v>80.85093521714401</v>
       </c>
       <c r="S9">
-        <v>0.002224608267340463</v>
+        <v>0.002000620442318733</v>
       </c>
       <c r="T9">
-        <v>0.002224608267340462</v>
+        <v>0.002000620442318733</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>63.84983200000001</v>
       </c>
       <c r="I10">
-        <v>0.3056116116214432</v>
+        <v>0.2762209851911765</v>
       </c>
       <c r="J10">
-        <v>0.3056116116214432</v>
+        <v>0.2762209851911764</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>5.692542</v>
+        <v>4.133026333333333</v>
       </c>
       <c r="N10">
-        <v>17.077626</v>
+        <v>12.399079</v>
       </c>
       <c r="O10">
-        <v>0.07918386842663459</v>
+        <v>0.07092056230936286</v>
       </c>
       <c r="P10">
-        <v>0.07918386842663459</v>
+        <v>0.07092056230936288</v>
       </c>
       <c r="Q10">
-        <v>121.155950117648</v>
+        <v>87.9643456783031</v>
       </c>
       <c r="R10">
-        <v>1090.403551058832</v>
+        <v>791.679111104728</v>
       </c>
       <c r="S10">
-        <v>0.02419950964428411</v>
+        <v>0.01958974759140443</v>
       </c>
       <c r="T10">
-        <v>0.02419950964428411</v>
+        <v>0.01958974759140443</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>63.84983200000001</v>
       </c>
       <c r="I11">
-        <v>0.3056116116214432</v>
+        <v>0.2762209851911765</v>
       </c>
       <c r="J11">
-        <v>0.3056116116214432</v>
+        <v>0.2762209851911764</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>3.511976</v>
+        <v>0.1434673333333333</v>
       </c>
       <c r="N11">
-        <v>10.535928</v>
+        <v>0.430402</v>
       </c>
       <c r="O11">
-        <v>0.04885196200598933</v>
+        <v>0.002461824128959449</v>
       </c>
       <c r="P11">
-        <v>0.04885196200598932</v>
+        <v>0.002461824128959449</v>
       </c>
       <c r="Q11">
-        <v>74.74635919601067</v>
+        <v>3.053455043607111</v>
       </c>
       <c r="R11">
-        <v>672.717232764096</v>
+        <v>27.481095392464</v>
       </c>
       <c r="S11">
-        <v>0.01492972683951991</v>
+        <v>0.000680007486268589</v>
       </c>
       <c r="T11">
-        <v>0.01492972683951991</v>
+        <v>0.0006800074862685889</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,22 +1154,22 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.01809766666666666</v>
+        <v>0.2844766666666667</v>
       </c>
       <c r="H12">
-        <v>0.05429299999999999</v>
+        <v>0.85343</v>
       </c>
       <c r="I12">
-        <v>0.0002598686748269442</v>
+        <v>0.003692026556807631</v>
       </c>
       <c r="J12">
-        <v>0.0002598686748269441</v>
+        <v>0.003692026556807631</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>51.78202533333334</v>
+        <v>43.19793166666667</v>
       </c>
       <c r="N12">
-        <v>155.346076</v>
+        <v>129.593795</v>
       </c>
       <c r="O12">
-        <v>0.7202935140152373</v>
+        <v>0.7412538312889448</v>
       </c>
       <c r="P12">
-        <v>0.7202935140152372</v>
+        <v>0.7412538312889448</v>
       </c>
       <c r="Q12">
-        <v>0.9371338338075555</v>
+        <v>12.28880360742778</v>
       </c>
       <c r="R12">
-        <v>8.434204504267999</v>
+        <v>110.59923246685</v>
       </c>
       <c r="S12">
-        <v>0.0001871817209735827</v>
+        <v>0.002736728830454188</v>
       </c>
       <c r="T12">
-        <v>0.0001871817209735826</v>
+        <v>0.002736728830454188</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,22 +1216,22 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.01809766666666666</v>
+        <v>0.2844766666666667</v>
       </c>
       <c r="H13">
-        <v>0.05429299999999999</v>
+        <v>0.85343</v>
       </c>
       <c r="I13">
-        <v>0.0002598686748269442</v>
+        <v>0.003692026556807631</v>
       </c>
       <c r="J13">
-        <v>0.0002598686748269441</v>
+        <v>0.003692026556807631</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>31.14098</v>
       </c>
       <c r="O13">
-        <v>0.1443914548190984</v>
+        <v>0.1781209566020688</v>
       </c>
       <c r="P13">
-        <v>0.1443914548190984</v>
+        <v>0.1781209566020688</v>
       </c>
       <c r="Q13">
-        <v>0.1878596919044444</v>
+        <v>2.952960729044444</v>
       </c>
       <c r="R13">
-        <v>1.69073722714</v>
+        <v>26.5766465614</v>
       </c>
       <c r="S13">
-        <v>3.752281602017368E-05</v>
+        <v>0.0006576273020988178</v>
       </c>
       <c r="T13">
-        <v>3.752281602017367E-05</v>
+        <v>0.0006576273020988177</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.01809766666666666</v>
+        <v>0.2844766666666667</v>
       </c>
       <c r="H14">
-        <v>0.05429299999999999</v>
+        <v>0.85343</v>
       </c>
       <c r="I14">
-        <v>0.0002598686748269442</v>
+        <v>0.003692026556807631</v>
       </c>
       <c r="J14">
-        <v>0.0002598686748269441</v>
+        <v>0.003692026556807631</v>
       </c>
       <c r="K14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>0.523303</v>
+        <v>0.422089</v>
       </c>
       <c r="N14">
-        <v>1.569909</v>
+        <v>1.266267</v>
       </c>
       <c r="O14">
-        <v>0.007279200733040383</v>
+        <v>0.007242825670663926</v>
       </c>
       <c r="P14">
-        <v>0.007279200733040382</v>
+        <v>0.007242825670663927</v>
       </c>
       <c r="Q14">
-        <v>0.009470563259666664</v>
+        <v>0.1200744717566667</v>
       </c>
       <c r="R14">
-        <v>0.08523506933699999</v>
+        <v>1.08067024581</v>
       </c>
       <c r="S14">
-        <v>1.891636248294525E-06</v>
+        <v>2.674070472241926E-05</v>
       </c>
       <c r="T14">
-        <v>1.891636248294524E-06</v>
+        <v>2.674070472241926E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,22 +1340,22 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.01809766666666666</v>
+        <v>0.2844766666666667</v>
       </c>
       <c r="H15">
-        <v>0.05429299999999999</v>
+        <v>0.85343</v>
       </c>
       <c r="I15">
-        <v>0.0002598686748269442</v>
+        <v>0.003692026556807631</v>
       </c>
       <c r="J15">
-        <v>0.0002598686748269441</v>
+        <v>0.003692026556807631</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>5.692542</v>
+        <v>4.133026333333333</v>
       </c>
       <c r="N15">
-        <v>17.077626</v>
+        <v>12.399079</v>
       </c>
       <c r="O15">
-        <v>0.07918386842663459</v>
+        <v>0.07092056230936286</v>
       </c>
       <c r="P15">
-        <v>0.07918386842663459</v>
+        <v>0.07092056230936288</v>
       </c>
       <c r="Q15">
-        <v>0.103021727602</v>
+        <v>1.175749554552222</v>
       </c>
       <c r="R15">
-        <v>0.9271955484179998</v>
+        <v>10.58174599097</v>
       </c>
       <c r="S15">
-        <v>2.057740695570064E-05</v>
+        <v>0.000261840599469898</v>
       </c>
       <c r="T15">
-        <v>2.057740695570063E-05</v>
+        <v>0.0002618405994698981</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,22 +1402,22 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.01809766666666666</v>
+        <v>0.2844766666666667</v>
       </c>
       <c r="H16">
-        <v>0.05429299999999999</v>
+        <v>0.85343</v>
       </c>
       <c r="I16">
-        <v>0.0002598686748269442</v>
+        <v>0.003692026556807631</v>
       </c>
       <c r="J16">
-        <v>0.0002598686748269441</v>
+        <v>0.003692026556807631</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>3.511976</v>
+        <v>0.1434673333333333</v>
       </c>
       <c r="N16">
-        <v>10.535928</v>
+        <v>0.430402</v>
       </c>
       <c r="O16">
-        <v>0.04885196200598933</v>
+        <v>0.002461824128959449</v>
       </c>
       <c r="P16">
-        <v>0.04885196200598932</v>
+        <v>0.002461824128959449</v>
       </c>
       <c r="Q16">
-        <v>0.06355857098933333</v>
+        <v>0.04081310876222222</v>
       </c>
       <c r="R16">
-        <v>0.5720271389039999</v>
+        <v>0.36731797886</v>
       </c>
       <c r="S16">
-        <v>1.269509462919267E-05</v>
+        <v>9.089120062308103E-06</v>
       </c>
       <c r="T16">
-        <v>1.269509462919267E-05</v>
+        <v>9.089120062308102E-06</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>4.321727666666667</v>
+        <v>2.885791333333333</v>
       </c>
       <c r="H17">
-        <v>12.965183</v>
+        <v>8.657373999999999</v>
       </c>
       <c r="I17">
-        <v>0.06205670943029166</v>
+        <v>0.03745269643698477</v>
       </c>
       <c r="J17">
-        <v>0.06205670943029164</v>
+        <v>0.03745269643698476</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>51.78202533333334</v>
+        <v>43.19793166666667</v>
       </c>
       <c r="N17">
-        <v>155.346076</v>
+        <v>129.593795</v>
       </c>
       <c r="O17">
-        <v>0.7202935140152373</v>
+        <v>0.7412538312889448</v>
       </c>
       <c r="P17">
-        <v>0.7202935140152372</v>
+        <v>0.7412538312889448</v>
       </c>
       <c r="Q17">
-        <v>223.7878115191009</v>
+        <v>124.6602168215922</v>
       </c>
       <c r="R17">
-        <v>2014.090303671908</v>
+        <v>1121.94195139433</v>
       </c>
       <c r="S17">
-        <v>0.0446990453037673</v>
+        <v>0.02776195472601677</v>
       </c>
       <c r="T17">
-        <v>0.04469904530376727</v>
+        <v>0.02776195472601677</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>4.321727666666667</v>
+        <v>2.885791333333333</v>
       </c>
       <c r="H18">
-        <v>12.965183</v>
+        <v>8.657373999999999</v>
       </c>
       <c r="I18">
-        <v>0.06205670943029166</v>
+        <v>0.03745269643698477</v>
       </c>
       <c r="J18">
-        <v>0.06205670943029164</v>
+        <v>0.03745269643698476</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>31.14098</v>
       </c>
       <c r="O18">
-        <v>0.1443914548190984</v>
+        <v>0.1781209566020688</v>
       </c>
       <c r="P18">
-        <v>0.1443914548190984</v>
+        <v>0.1781209566020688</v>
       </c>
       <c r="Q18">
-        <v>44.86094494437111</v>
+        <v>29.95545673183555</v>
       </c>
       <c r="R18">
-        <v>403.74850449934</v>
+        <v>269.5991105865199</v>
       </c>
       <c r="S18">
-        <v>0.008960458555925874</v>
+        <v>0.006671110116682622</v>
       </c>
       <c r="T18">
-        <v>0.008960458555925871</v>
+        <v>0.006671110116682621</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,46 +1594,46 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>4.321727666666667</v>
+        <v>2.885791333333333</v>
       </c>
       <c r="H19">
-        <v>12.965183</v>
+        <v>8.657373999999999</v>
       </c>
       <c r="I19">
-        <v>0.06205670943029166</v>
+        <v>0.03745269643698477</v>
       </c>
       <c r="J19">
-        <v>0.06205670943029164</v>
+        <v>0.03745269643698476</v>
       </c>
       <c r="K19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M19">
-        <v>0.523303</v>
+        <v>0.422089</v>
       </c>
       <c r="N19">
-        <v>1.569909</v>
+        <v>1.266267</v>
       </c>
       <c r="O19">
-        <v>0.007279200733040383</v>
+        <v>0.007242825670663926</v>
       </c>
       <c r="P19">
-        <v>0.007279200733040382</v>
+        <v>0.007242825670663927</v>
       </c>
       <c r="Q19">
-        <v>2.261573053149667</v>
+        <v>1.218060778095333</v>
       </c>
       <c r="R19">
-        <v>20.354157478347</v>
+        <v>10.962547002858</v>
       </c>
       <c r="S19">
-        <v>0.0004517232447750531</v>
+        <v>0.0002712633511893766</v>
       </c>
       <c r="T19">
-        <v>0.0004517232447750529</v>
+        <v>0.0002712633511893766</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>4.321727666666667</v>
+        <v>2.885791333333333</v>
       </c>
       <c r="H20">
-        <v>12.965183</v>
+        <v>8.657373999999999</v>
       </c>
       <c r="I20">
-        <v>0.06205670943029166</v>
+        <v>0.03745269643698477</v>
       </c>
       <c r="J20">
-        <v>0.06205670943029164</v>
+        <v>0.03745269643698476</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>5.692542</v>
+        <v>4.133026333333333</v>
       </c>
       <c r="N20">
-        <v>17.077626</v>
+        <v>12.399079</v>
       </c>
       <c r="O20">
-        <v>0.07918386842663459</v>
+        <v>0.07092056230936286</v>
       </c>
       <c r="P20">
-        <v>0.07918386842663459</v>
+        <v>0.07092056230936288</v>
       </c>
       <c r="Q20">
-        <v>24.601616255062</v>
+        <v>11.92705157317178</v>
       </c>
       <c r="R20">
-        <v>221.414546295558</v>
+        <v>107.343464158546</v>
       </c>
       <c r="S20">
-        <v>0.004913890314518109</v>
+        <v>0.002656166291312831</v>
       </c>
       <c r="T20">
-        <v>0.004913890314518107</v>
+        <v>0.002656166291312831</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>4.321727666666667</v>
+        <v>2.885791333333333</v>
       </c>
       <c r="H21">
-        <v>12.965183</v>
+        <v>8.657373999999999</v>
       </c>
       <c r="I21">
-        <v>0.06205670943029166</v>
+        <v>0.03745269643698477</v>
       </c>
       <c r="J21">
-        <v>0.06205670943029164</v>
+        <v>0.03745269643698476</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>3.511976</v>
+        <v>0.1434673333333333</v>
       </c>
       <c r="N21">
-        <v>10.535928</v>
+        <v>0.430402</v>
       </c>
       <c r="O21">
-        <v>0.04885196200598933</v>
+        <v>0.002461824128959449</v>
       </c>
       <c r="P21">
-        <v>0.04885196200598932</v>
+        <v>0.002461824128959449</v>
       </c>
       <c r="Q21">
-        <v>15.17780384386933</v>
+        <v>0.4140167871497777</v>
       </c>
       <c r="R21">
-        <v>136.600234594824</v>
+        <v>3.726151084347999</v>
       </c>
       <c r="S21">
-        <v>0.003031592011305328</v>
+        <v>9.220195178316271E-05</v>
       </c>
       <c r="T21">
-        <v>0.003031592011305326</v>
+        <v>9.220195178316269E-05</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,22 +1774,22 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G22">
-        <v>0.030675</v>
+        <v>0.12694</v>
       </c>
       <c r="H22">
-        <v>0.092025</v>
+        <v>0.38082</v>
       </c>
       <c r="I22">
-        <v>0.0004404695780478061</v>
+        <v>0.001647466755754405</v>
       </c>
       <c r="J22">
-        <v>0.000440469578047806</v>
+        <v>0.001647466755754405</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>51.78202533333334</v>
+        <v>43.19793166666667</v>
       </c>
       <c r="N22">
-        <v>155.346076</v>
+        <v>129.593795</v>
       </c>
       <c r="O22">
-        <v>0.7202935140152373</v>
+        <v>0.7412538312889448</v>
       </c>
       <c r="P22">
-        <v>0.7202935140152372</v>
+        <v>0.7412538312889448</v>
       </c>
       <c r="Q22">
-        <v>1.5884136271</v>
+        <v>5.483545445766667</v>
       </c>
       <c r="R22">
-        <v>14.2957226439</v>
+        <v>49.3519090119</v>
       </c>
       <c r="S22">
-        <v>0.0003172673801888631</v>
+        <v>0.001221191044624121</v>
       </c>
       <c r="T22">
-        <v>0.000317267380188863</v>
+        <v>0.001221191044624121</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,22 +1836,22 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G23">
-        <v>0.030675</v>
+        <v>0.12694</v>
       </c>
       <c r="H23">
-        <v>0.092025</v>
+        <v>0.38082</v>
       </c>
       <c r="I23">
-        <v>0.0004404695780478061</v>
+        <v>0.001647466755754405</v>
       </c>
       <c r="J23">
-        <v>0.000440469578047806</v>
+        <v>0.001647466755754405</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>31.14098</v>
       </c>
       <c r="O23">
-        <v>0.1443914548190984</v>
+        <v>0.1781209566020688</v>
       </c>
       <c r="P23">
-        <v>0.1443914548190984</v>
+        <v>0.1781209566020688</v>
       </c>
       <c r="Q23">
-        <v>0.3184165205</v>
+        <v>1.317678667066667</v>
       </c>
       <c r="R23">
-        <v>2.8657486845</v>
+        <v>11.8591080036</v>
       </c>
       <c r="S23">
-        <v>6.360004317787711E-05</v>
+        <v>0.0002934483545050816</v>
       </c>
       <c r="T23">
-        <v>6.36000431778771E-05</v>
+        <v>0.0002934483545050816</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G24">
-        <v>0.030675</v>
+        <v>0.12694</v>
       </c>
       <c r="H24">
-        <v>0.092025</v>
+        <v>0.38082</v>
       </c>
       <c r="I24">
-        <v>0.0004404695780478061</v>
+        <v>0.001647466755754405</v>
       </c>
       <c r="J24">
-        <v>0.000440469578047806</v>
+        <v>0.001647466755754405</v>
       </c>
       <c r="K24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L24">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M24">
-        <v>0.523303</v>
+        <v>0.422089</v>
       </c>
       <c r="N24">
-        <v>1.569909</v>
+        <v>1.266267</v>
       </c>
       <c r="O24">
-        <v>0.007279200733040383</v>
+        <v>0.007242825670663926</v>
       </c>
       <c r="P24">
-        <v>0.007279200733040382</v>
+        <v>0.007242825670663927</v>
       </c>
       <c r="Q24">
-        <v>0.016052319525</v>
+        <v>0.05357997766</v>
       </c>
       <c r="R24">
-        <v>0.144470875725</v>
+        <v>0.48221979894</v>
       </c>
       <c r="S24">
-        <v>3.206266475407578E-06</v>
+        <v>1.193231451014342E-05</v>
       </c>
       <c r="T24">
-        <v>3.206266475407577E-06</v>
+        <v>1.193231451014342E-05</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,22 +1960,22 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G25">
-        <v>0.030675</v>
+        <v>0.12694</v>
       </c>
       <c r="H25">
-        <v>0.092025</v>
+        <v>0.38082</v>
       </c>
       <c r="I25">
-        <v>0.0004404695780478061</v>
+        <v>0.001647466755754405</v>
       </c>
       <c r="J25">
-        <v>0.000440469578047806</v>
+        <v>0.001647466755754405</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>5.692542</v>
+        <v>4.133026333333333</v>
       </c>
       <c r="N25">
-        <v>17.077626</v>
+        <v>12.399079</v>
       </c>
       <c r="O25">
-        <v>0.07918386842663459</v>
+        <v>0.07092056230936286</v>
       </c>
       <c r="P25">
-        <v>0.07918386842663459</v>
+        <v>0.07092056230936288</v>
       </c>
       <c r="Q25">
-        <v>0.17461872585</v>
+        <v>0.5246463627533332</v>
       </c>
       <c r="R25">
-        <v>1.57156853265</v>
+        <v>4.721817264779999</v>
       </c>
       <c r="S25">
-        <v>3.487808511407273E-05</v>
+        <v>0.0001168392687040842</v>
       </c>
       <c r="T25">
-        <v>3.487808511407273E-05</v>
+        <v>0.0001168392687040842</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,22 +2022,22 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G26">
-        <v>0.030675</v>
+        <v>0.12694</v>
       </c>
       <c r="H26">
-        <v>0.092025</v>
+        <v>0.38082</v>
       </c>
       <c r="I26">
-        <v>0.0004404695780478061</v>
+        <v>0.001647466755754405</v>
       </c>
       <c r="J26">
-        <v>0.000440469578047806</v>
+        <v>0.001647466755754405</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>3.511976</v>
+        <v>0.1434673333333333</v>
       </c>
       <c r="N26">
-        <v>10.535928</v>
+        <v>0.430402</v>
       </c>
       <c r="O26">
-        <v>0.04885196200598933</v>
+        <v>0.002461824128959449</v>
       </c>
       <c r="P26">
-        <v>0.04885196200598932</v>
+        <v>0.002461824128959449</v>
       </c>
       <c r="Q26">
-        <v>0.1077298638</v>
+        <v>0.01821174329333333</v>
       </c>
       <c r="R26">
-        <v>0.9695687742</v>
+        <v>0.16390568964</v>
       </c>
       <c r="S26">
-        <v>2.151780309158558E-05</v>
+        <v>4.055773410974739E-06</v>
       </c>
       <c r="T26">
-        <v>2.151780309158557E-05</v>
+        <v>4.055773410974739E-06</v>
       </c>
     </row>
   </sheetData>
